--- a/src/main/resources/word/temp_外商台账.xlsx
+++ b/src/main/resources/word/temp_外商台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>外商台账</t>
   </si>
@@ -48,19 +48,25 @@
   <si>
     <t>t.createTime}}</t>
   </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>{{totalAmount}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -87,17 +93,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,6 +199,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -116,119 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,181 +251,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,8 +466,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +520,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,189 +560,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -715,10 +721,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,25 +733,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,15 +1075,15 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="27.1666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="4" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
@@ -1147,7 +1153,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1"/>
+    <row r="4" s="2" customFormat="1" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="5" s="2" customFormat="1"/>
     <row r="6" s="2" customFormat="1"/>
     <row r="7" s="2" customFormat="1"/>

--- a/src/main/resources/word/temp_外商台账.xlsx
+++ b/src/main/resources/word/temp_外商台账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="24720" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>t.deptName</t>
   </si>
   <si>
-    <t>t.createTime}}</t>
+    <t>t.actualDate}}</t>
   </si>
   <si>
     <t>合计</t>
@@ -60,13 +60,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -93,13 +93,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,8 +106,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +116,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,9 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,17 +171,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,7 +187,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +209,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,26 +229,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,49 +257,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,91 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,11 +463,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +518,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,64 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +566,148 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,10 +721,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,25 +733,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
